--- a/biology/Zoologie/Éperlan/Éperlan.xlsx
+++ b/biology/Zoologie/Éperlan/Éperlan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89perlan</t>
+          <t>Éperlan</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,23 +490,25 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le terme « éperlan » est un nom vernaculaire ambigu en français, pouvant désigner plusieurs espèces différentes de petits poissons.
 La plupart des espèces viennent de l'ordre des osmériformes, principalement de la famille des osméridés :
-l'Éperlan du Japon (en), Éperlan à petite bouche ou Éperlan (Hypomesus olidus)[1] ;
-l'Éperlan du Pacifique (en) ou Éperlan (H. pretiosus)[2] ;
-l'Éperlan du Pacifique (en) ou Éperlan arc-en-ciel (Osmerus dentex)[3] ;
-l'Éperlan européen, Éperlan d'Europe, Éperlan, Concombre ou Trogue (O. eperlanus)[4],[5],[6] ;
-l'Éperlan arc-en-ciel, Éperlan d'Amérique, Éperlan du nord ou Éperlan de lac du Canada (O. mordax)[4],[7],[8] ;
-l'Éperlan australien (Retropinna semoni)[9] ;
-l'Éperlan d'hiver (en) (Spirinchus thaleichthys)[10].
+l'Éperlan du Japon (en), Éperlan à petite bouche ou Éperlan (Hypomesus olidus) ;
+l'Éperlan du Pacifique (en) ou Éperlan (H. pretiosus) ;
+l'Éperlan du Pacifique (en) ou Éperlan arc-en-ciel (Osmerus dentex) ;
+l'Éperlan européen, Éperlan d'Europe, Éperlan, Concombre ou Trogue (O. eperlanus) ;
+l'Éperlan arc-en-ciel, Éperlan d'Amérique, Éperlan du nord ou Éperlan de lac du Canada (O. mordax) ;
+l'Éperlan australien (Retropinna semoni) ;
+l'Éperlan d'hiver (en) (Spirinchus thaleichthys).
 Quelques autres sont issues de l'ordre des aulopiformes :
-l'Éperlan du large, Éperlan du large atlantique ou Verdocil nez court (Chlorophthalmus agassizi)[11],[12] ;
-l'Éperlan du large de l'Atlantique (nl) (C. atlanticus)[13] ;
-l'Éperlan du large tacheté (nl) ou Verdœil tacheté (C. punctatus)[14].
+l'Éperlan du large, Éperlan du large atlantique ou Verdocil nez court (Chlorophthalmus agassizi), ;
+l'Éperlan du large de l'Atlantique (nl) (C. atlanticus) ;
+l'Éperlan du large tacheté (nl) ou Verdœil tacheté (C. punctatus).
 Enfin, une espèce provient de l'ordre des athériniformes :
-le Prêtre, Joël, Faux éperlan ou Athérine (Atherina presbyter)[15],[16].
+le Prêtre, Joël, Faux éperlan ou Athérine (Atherina presbyter),.
 			Éperlan européen (Osmerus eperlanus)
 			Éperlan du Japon (Hypomesus olidus)
 			Éperlan australien (Retropinna semoni)
